--- a/data/trans_bre/P45C_R1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,86</t>
+          <t>-3,2; 0,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,58</t>
+          <t>-0,95; 2,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,87</t>
+          <t>-0,55; 3,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,3; 63,9</t>
+          <t>-77,27; 48,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,47; 421,48</t>
+          <t>-65,42; 440,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 623,06</t>
+          <t>-40,22; 543,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,35</t>
+          <t>-1,49; 1,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,23</t>
+          <t>-3,13; 0,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,19</t>
+          <t>-1,4; 1,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,28; 108,55</t>
+          <t>-60,18; 114,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,74; 17,88</t>
+          <t>-78,12; 20,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,38; 213,64</t>
+          <t>-73,19; 218,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,2</t>
+          <t>0,4; 3,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,15</t>
+          <t>0,55; 3,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 0,31</t>
+          <t>-1,5; 0,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 653,46</t>
+          <t>10,32; 725,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,37; 1281,63</t>
+          <t>22,99; 1557,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 109,55</t>
+          <t>-92,16; 122,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,12</t>
+          <t>-2,6; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,2</t>
+          <t>-0,9; 2,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,5</t>
+          <t>0,28; 2,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,04; 104,82</t>
+          <t>-77,12; 118,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 255,1</t>
+          <t>-43,58; 265,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,65; —</t>
+          <t>-3,0; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,98</t>
+          <t>-1,27; 2,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,6</t>
+          <t>-1,07; 1,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,26</t>
+          <t>-1,39; 1,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-68,17; 404,93</t>
+          <t>-66,63; 480,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,48</t>
+          <t>-1,83; 0,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,21</t>
+          <t>-0,59; 1,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,42</t>
+          <t>-1,45; 0,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-92,24; 165,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,29; 848,5</t>
+          <t>-74,15; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 225,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,63</t>
+          <t>-0,66; 0,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,92</t>
+          <t>-0,25; 0,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,71</t>
+          <t>-0,33; 0,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 46,72</t>
+          <t>-33,9; 46,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 92,77</t>
+          <t>-17,43; 85,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 98,36</t>
+          <t>-29,15; 104,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P45C_R1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,7</t>
+          <t>-3,03; 0,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,6</t>
+          <t>-0,86; 2,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,71</t>
+          <t>-0,79; 3,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,23</t>
+          <t>-3,53; 2,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-77,27; 48,15</t>
+          <t>-77,98; 58,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,42; 440,14</t>
+          <t>-52,74; 485,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 543,03</t>
+          <t>-43,82; 624,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-98,59; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,42</t>
+          <t>-1,69; 1,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,18</t>
+          <t>-3,16; 0,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,13</t>
+          <t>-1,29; 1,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,81</t>
+          <t>-2,57; 2,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,18; 114,64</t>
+          <t>-61,51; 130,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,12; 20,32</t>
+          <t>-78,04; 30,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,19; 218,13</t>
+          <t>-69,28; 226,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,27; 312,34</t>
+          <t>-66,71; 331,54</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,41</t>
+          <t>0,39; 3,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,01</t>
+          <t>0,52; 3,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,29</t>
+          <t>-1,5; 0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,44</t>
+          <t>-1,96; 1,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 725,06</t>
+          <t>10,33; 794,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,99; 1557,1</t>
+          <t>20,22; 1299,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-92,16; 122,55</t>
+          <t>-100,0; 121,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,76; 148,2</t>
+          <t>-59,68; 114,52</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,15</t>
+          <t>-2,66; 1,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,4</t>
+          <t>-0,89; 2,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,57</t>
+          <t>0,29; 2,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,22</t>
+          <t>-1,72; 1,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,12; 118,59</t>
+          <t>-77,18; 105,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,58; 265,43</t>
+          <t>-44,85; 246,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; —</t>
+          <t>-20,1; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 124,77</t>
+          <t>-59,31; 120,58</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,17</t>
+          <t>-1,12; 2,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,54</t>
+          <t>-1,02; 1,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,29</t>
+          <t>-1,34; 1,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 0,47</t>
+          <t>-2,36; 0,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-66,63; 480,36</t>
+          <t>-60,41; 386,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-71,61; 37,29</t>
+          <t>-70,78; 60,12</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,45</t>
+          <t>-1,8; 0,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,2</t>
+          <t>-0,6; 1,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,42</t>
+          <t>-1,44; 0,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,39</t>
+          <t>-0,79; 0,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-92,41; 180,37</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-77,79; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-74,15; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 225,82</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,1; 173,79</t>
+          <t>-79,01; 137,06</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,62</t>
+          <t>-0,63; 0,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,9</t>
+          <t>-0,25; 0,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,69</t>
+          <t>-0,29; 0,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,34</t>
+          <t>-0,89; 0,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 46,22</t>
+          <t>-31,66; 48,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 85,97</t>
+          <t>-15,74; 84,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 104,17</t>
+          <t>-26,14; 101,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-44,52; 24,57</t>
+          <t>-42,69; 31,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-22,75%</t>
+          <t>-13,41%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 2,25</t>
+          <t>-3,11; 2,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,79</t>
+          <t>-3,11; 2,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,71; 331,54</t>
+          <t>-73,15; 274,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>-1,6%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,32</t>
+          <t>-1,96; 1,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,68; 114,52</t>
+          <t>-59,64; 119,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>25,8%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,21</t>
+          <t>-1,16; 1,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,31; 120,58</t>
+          <t>-48,76; 273,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-35,03%</t>
+          <t>-34,63%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,78</t>
+          <t>-2,35; 0,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-70,78; 60,12</t>
+          <t>-70,6; 63,24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-44,97%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,62%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-43,96%</t>
+          <t>-35,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>-10,77%</t>
         </is>
       </c>
     </row>
@@ -1168,32 +1168,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,45</t>
+          <t>-1,65; 1,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,14</t>
+          <t>-1,36; 1,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,43</t>
+          <t>-2,21; 0,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,33</t>
+          <t>-1,17; 0,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-92,41; 180,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,79; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,01; 137,06</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-75,68%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>-51,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>-57,41%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-3,39; 0,17</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,04</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 0,65</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 0,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23,32%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22,73%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-11,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,63; 0,65</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-0,25; 0,88</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,29; 0,69</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 0,45</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 0,49</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-31,66; 48,2</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-15,74; 84,9</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-26,14; 101,48</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-42,69; 31,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-42,83; 40,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P45C_R1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Edad-trans_bre.xlsx
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,73</t>
+          <t>-3,16; 0,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,61</t>
+          <t>-0,91; 2,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,79</t>
+          <t>-0,54; 4,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,35</t>
+          <t>-3,3; 2,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-77,98; 58,28</t>
+          <t>-76,98; 63,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 485,05</t>
+          <t>-61,93; 420,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 624,62</t>
+          <t>-31,25; 673,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,41</t>
+          <t>-1,52; 1,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,21</t>
+          <t>-3,03; 0,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,27</t>
+          <t>-1,31; 1,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,41</t>
+          <t>-3,48; 2,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,51; 130,67</t>
+          <t>-59,15; 112,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,04; 30,31</t>
+          <t>-76,61; 26,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,28; 226,44</t>
+          <t>-75,9; 198,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,15; 274,93</t>
+          <t>-77,12; 224,0</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,33</t>
+          <t>0,45; 3,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,25</t>
+          <t>0,52; 3,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,26</t>
+          <t>-1,47; 0,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,39</t>
+          <t>-1,77; 1,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,33; 794,99</t>
+          <t>11,6; 742,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,22; 1299,7</t>
+          <t>23,34; 1331,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,33</t>
+          <t>-100,0; 92,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,64; 119,56</t>
+          <t>-60,32; 150,75</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,17</t>
+          <t>-2,61; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,22</t>
+          <t>-0,88; 2,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,58</t>
+          <t>0,27; 2,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,73</t>
+          <t>-0,93; 1,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,18; 105,89</t>
+          <t>-76,98; 86,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 246,77</t>
+          <t>-42,91; 258,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,1; —</t>
+          <t>-6,3; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,76; 273,59</t>
+          <t>-42,44; 328,22</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,15</t>
+          <t>-1,31; 2,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,46</t>
+          <t>-1,06; 1,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,39</t>
+          <t>-1,32; 1,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,78</t>
+          <t>-2,59; 0,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-60,41; 386,51</t>
+          <t>-66,3; 361,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-70,6; 63,24</t>
+          <t>-71,42; 41,27</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,31</t>
+          <t>-1,85; 1,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,63</t>
+          <t>-1,48; 1,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,81</t>
+          <t>-2,18; 0,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,69</t>
+          <t>-1,13; 0,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-97,27; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,07; 366,27</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 0,17</t>
+          <t>-3,59; 0,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,65</t>
+          <t>-1,72; 0,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,18</t>
+          <t>-1,13; 0,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,65</t>
+          <t>-0,71; 0,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,88</t>
+          <t>-0,26; 0,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,69</t>
+          <t>-0,27; 0,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,49</t>
+          <t>-0,87; 0,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 48,2</t>
+          <t>-35,19; 44,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 84,9</t>
+          <t>-16,58; 86,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 101,48</t>
+          <t>-25,51; 100,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 40,96</t>
+          <t>-41,93; 37,47</t>
         </is>
       </c>
     </row>
